--- a/database/seeders/uploads/local/prospects.xlsx
+++ b/database/seeders/uploads/local/prospects.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raul\wowsbar\database\seeders\uploads\local\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AB6165-0537-4FAD-A659-BA99064EBB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="700" yWindow="690" windowWidth="26290" windowHeight="15710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Code</t>
   </si>
@@ -47,9 +63,6 @@
     <t>haley.tamara@purdy.com</t>
   </si>
   <si>
-    <t>+1 (979) 739-9227</t>
-  </si>
-  <si>
     <t>carroll.info</t>
   </si>
   <si>
@@ -65,12 +78,6 @@
     <t>bella32@buckridge.com</t>
   </si>
   <si>
-    <t>+1-325-717-4471</t>
-  </si>
-  <si>
-    <t>rath.biz</t>
-  </si>
-  <si>
     <t>hhsf</t>
   </si>
   <si>
@@ -83,9 +90,6 @@
     <t>whauck@lueilwitz.com</t>
   </si>
   <si>
-    <t>+1.445.695.8340</t>
-  </si>
-  <si>
     <t>wyman.com</t>
   </si>
   <si>
@@ -101,9 +105,6 @@
     <t>heidi29@waters.org</t>
   </si>
   <si>
-    <t>1-458-705-4962</t>
-  </si>
-  <si>
     <t>kozey.com</t>
   </si>
   <si>
@@ -119,23 +120,21 @@
     <t>hegmann.austen@hotmail.com</t>
   </si>
   <si>
-    <t>240-971-4038</t>
-  </si>
-  <si>
     <t>schumm.com</t>
+  </si>
+  <si>
+    <t>"+60 012 9892525"</t>
+  </si>
+  <si>
+    <t>rath.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -162,13 +161,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -458,19 +465,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="29.36328125" customWidth="1"/>
+    <col min="4" max="4" width="58.54296875" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -503,105 +513,82 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/database/seeders/uploads/local/prospects.xlsx
+++ b/database/seeders/uploads/local/prospects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raul\wowsbar\database\seeders\uploads\local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AB6165-0537-4FAD-A659-BA99064EBB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57991394-BF99-40A5-AF75-DA503346F062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="690" windowWidth="26290" windowHeight="15710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="350" windowWidth="26290" windowHeight="15710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -123,21 +123,27 @@
     <t>schumm.com</t>
   </si>
   <si>
-    <t>"+60 012 9892525"</t>
-  </si>
-  <si>
     <t>rath.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +60 012 9892525</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,8 +166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +476,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,11 +537,11 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">

--- a/database/seeders/uploads/local/prospects.xlsx
+++ b/database/seeders/uploads/local/prospects.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raul\wowsbar\database\seeders\uploads\local\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57991394-BF99-40A5-AF75-DA503346F062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="350" windowWidth="26290" windowHeight="15710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Code</t>
   </si>
@@ -51,99 +35,104 @@
     <t>Contact Website</t>
   </si>
   <si>
-    <t>pijt</t>
-  </si>
-  <si>
-    <t>Max Hagenes Sr.</t>
-  </si>
-  <si>
-    <t>Goyette PLC</t>
-  </si>
-  <si>
-    <t>haley.tamara@purdy.com</t>
-  </si>
-  <si>
-    <t>carroll.info</t>
-  </si>
-  <si>
-    <t>cwqr</t>
-  </si>
-  <si>
-    <t>Prof. Pamela Carroll</t>
-  </si>
-  <si>
-    <t>Huel and Sons</t>
-  </si>
-  <si>
-    <t>bella32@buckridge.com</t>
-  </si>
-  <si>
-    <t>hhsf</t>
-  </si>
-  <si>
-    <t>Kelli Smitham</t>
-  </si>
-  <si>
-    <t>Medhurst-Stracke</t>
-  </si>
-  <si>
-    <t>whauck@lueilwitz.com</t>
-  </si>
-  <si>
-    <t>wyman.com</t>
-  </si>
-  <si>
-    <t>awnf</t>
-  </si>
-  <si>
-    <t>Dr. Deron Deckow V</t>
-  </si>
-  <si>
-    <t>Barrows and Sons</t>
-  </si>
-  <si>
-    <t>heidi29@waters.org</t>
-  </si>
-  <si>
-    <t>kozey.com</t>
-  </si>
-  <si>
-    <t>ziez</t>
-  </si>
-  <si>
-    <t>Prof. Mike Runte DVM</t>
-  </si>
-  <si>
-    <t>Smith-Schoen</t>
-  </si>
-  <si>
-    <t>hegmann.austen@hotmail.com</t>
-  </si>
-  <si>
-    <t>schumm.com</t>
-  </si>
-  <si>
-    <t>rath.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +60 012 9892525</t>
+    <t>bupq</t>
+  </si>
+  <si>
+    <t>Mr. Wilson Crist I</t>
+  </si>
+  <si>
+    <t>Hirthe-Beatty</t>
+  </si>
+  <si>
+    <t>petra.bayer@feil.com</t>
+  </si>
+  <si>
+    <t>434-417-2453</t>
+  </si>
+  <si>
+    <t>gerlach.com</t>
+  </si>
+  <si>
+    <t>ggux</t>
+  </si>
+  <si>
+    <t>Caitlyn Cole</t>
+  </si>
+  <si>
+    <t>Lakin-Halvorson</t>
+  </si>
+  <si>
+    <t>alysha88@smitham.com</t>
+  </si>
+  <si>
+    <t>1-469-807-7915</t>
+  </si>
+  <si>
+    <t>ryan.info</t>
+  </si>
+  <si>
+    <t>bmgz</t>
+  </si>
+  <si>
+    <t>Prof. Camden Gibson</t>
+  </si>
+  <si>
+    <t>Sipes-Wyman</t>
+  </si>
+  <si>
+    <t>wgreenholt@hartmann.com</t>
+  </si>
+  <si>
+    <t>kutch.com</t>
+  </si>
+  <si>
+    <t>gkqi</t>
+  </si>
+  <si>
+    <t>Mr. Guiseppe Jacobson</t>
+  </si>
+  <si>
+    <t>Okuneva LLC</t>
+  </si>
+  <si>
+    <t>cdickens@lakin.net</t>
+  </si>
+  <si>
+    <t>grimes.com</t>
+  </si>
+  <si>
+    <t>icmd</t>
+  </si>
+  <si>
+    <t>Mrs. Carolanne Rolfson Jr.</t>
+  </si>
+  <si>
+    <t>Hahn-Ullrich</t>
+  </si>
+  <si>
+    <t>qpollich@hotmail.com</t>
+  </si>
+  <si>
+    <t>319.612.8158</t>
+  </si>
+  <si>
+    <t>trantow.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,23 +155,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -472,22 +452,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="29.36328125" customWidth="1"/>
-    <col min="4" max="4" width="58.54296875" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -520,82 +497,105 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>14809765304</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>16236215690</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
+      <c r="E6" t="s">
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>